--- a/Demo/AutoXL-Demo.xlsx
+++ b/Demo/AutoXL-Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25321"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Submission\20220501\AutoXL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Submission\20220501\AutoXL\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101B3AC-3EB1-427E-92A9-F1E732D9006B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3C9304-A094-4097-8E48-E740874A87AF}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11820" tabRatio="828" xr2:uid="{43B4AE04-D357-4C00-9932-1CFA1DC5A44B}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="828" xr2:uid="{43B4AE04-D357-4C00-9932-1CFA1DC5A44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -21,402 +21,35 @@
     <sheet name="LOCATE" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="A.COUNTEQ.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlpm.criteria_col,
-    IF(
-        OR(_xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.criteria_col)),
-        #VALUE!,
-        _xlfn.BYCOL(
-            _xlpm.criteria_col,
-            _xlfn.LAMBDA(_xlpm.col,
-                A.REDUCE.COLS(0, _xlpm.array, _xlfn.LAMBDA(_xlpm.acc,_xlpm.col_bis,
-                    IF(A.EQ(_xlpm.col_bis, _xlpm.col), _xlpm.acc + 1, _xlpm.acc))))))
-)</definedName>
-    <definedName name="A.COUNTEQ.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlpm.criteria_row,
-    IF(
-        OR(_xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.criteria_row)),
-        #VALUE!,
-        _xlfn.BYROW(
-            _xlpm.criteria_row,
-            _xlfn.LAMBDA(_xlpm.row,
-                A.REDUCE.ROWS(0, _xlpm.array, _xlfn.LAMBDA(_xlpm.acc,_xlpm.row_bis,
-                    IF(A.EQ(_xlpm.row_bis, _xlpm.row), _xlpm.acc + 1, _xlpm.acc))))))
-)</definedName>
-    <definedName name="A.DUPLICATED" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlop.keep,_xlop.by_col,
-    _xlfn.LET(
-        _xlpm.keep, IF(_xlfn.ISOMITTED(_xlpm.keep), 0, _xlpm.keep * 1),
-        _xlpm.by_col, IF(_xlfn.ISOMITTED(_xlpm.by_col), 0, _xlpm.by_col * 1),
-        IF(_xlfn.ISOMITTED(_xlpm.array), #VALUE!,
-        IF(AND(_xlpm.keep &lt;&gt; 0, _xlpm.keep &lt;&gt; 1, _xlpm.keep &lt;&gt; -1), #VALUE!,
-        IF(AND(_xlpm.by_col &lt;&gt; 0, _xlpm.by_col &lt;&gt; 1), #VALUE!,
-        IF(_xlpm.by_col = 0,
-            IF(_xlpm.keep = 0, A.COUNTEQ.ROWS(_xlpm.array, _xlpm.array) &gt;= 2,
-            IF(_xlpm.keep = 1, ROW(_xlpm.array) - MIN(ROW(_xlpm.array)) + 1 &lt;&gt; A.XMATCH.ROWS(_xlpm.array,_xlpm.array),
-            IF(_xlpm.keep = -1, ROW(_xlpm.array) - MIN(ROW(_xlpm.array)) + 1 &lt;&gt; A.XMATCH.ROWS(_xlpm.array, _xlpm.array, -1),
-            #VALUE!))),
-        IF(_xlpm.by_col = 1,
-            IF(_xlpm.keep = 0, A.COUNTEQ.COLS(_xlpm.array, _xlpm.array) &gt;= 2,
-            IF(_xlpm.keep = 1, COLUMN(_xlpm.array) - MIN(COLUMN(_xlpm.array)) + 1 &lt;&gt; A.XMATCH.COLS(_xlpm.array,_xlpm.array),
-            IF(_xlpm.keep = -1, COLUMN(_xlpm.array) - MIN(COLUMN(_xlpm.array)) + 1 &lt;&gt; A.XMATCH.COLS(_xlpm.array, _xlpm.array, -1),
-            #VALUE!))),
-        #VALUE!))))))
-)</definedName>
-    <definedName name="A.DUPLICATED.BYTIMES" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlpm.occurrence,_xlop.by_col,
-    _xlfn.LET(
-        _xlpm.by_col, IF(_xlfn.ISOMITTED(_xlpm.by_col), 0, _xlpm.by_col * 1),
-        IF(OR(_xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.occurrence)), #VALUE!,
-        IF(AND(_xlpm.by_col &lt;&gt; 0, _xlpm.by_col &lt;&gt; 1), #VALUE!,
-        IF(_xlpm.by_col = 0, A.COUNTEQ.ROWS(_xlpm.array, _xlpm.array) = _xlpm.occurrence,
-        IF(_xlpm.by_col = 1, A.COUNTEQ.COLS(_xlpm.array, _xlpm.array) = _xlpm.occurrence,
-        #VALUE!)))))
-)</definedName>
-    <definedName name="A.DUPLICATES" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlop.keep,_xlop.by_col,_xlop.return_array,
-    _xlfn.LET(
-        _xlpm.return_array, IF(_xlfn.ISOMITTED(_xlpm.return_array), _xlpm.array, _xlpm.return_array),
-        _xlfn._xlws.FILTER(_xlpm.return_array, A.DUPLICATED(_xlpm.array, _xlpm.keep, _xlpm.by_col)))
-)</definedName>
-    <definedName name="A.DUPLICATES.BYTIMES" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlpm.occurrence,_xlop.by_col,_xlop.return_array,
-    _xlfn.LET(
-        _xlpm.return_array, IF(_xlfn.ISOMITTED(_xlpm.return_array), _xlpm.array, _xlpm.return_array),
-        _xlfn._xlws.FILTER(_xlpm.return_array, A.DUPLICATED.BYTIMES(_xlpm.array, _xlpm.occurrence, _xlpm.by_col)))
-)</definedName>
-    <definedName name="A.EQ" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.value1,_xlpm.value2,
-    IF(AND(ISBLANK(_xlpm.value1), ISBLANK(_xlpm.value2)), TRUE,
-    IF(AND(ISBLANK(_xlpm.value1), NOT(ISBLANK(_xlpm.value2))), FALSE,
-    IF(AND(NOT(ISBLANK(_xlpm.value1)), ISBLANK(_xlpm.value2)), FALSE,
-    IF(COLUMNS(_xlpm.value1) &lt;&gt; COLUMNS(_xlpm.value2), FALSE,
-        _xlfn.ARRAYTOTEXT(_xlpm.value1, 1) = _xlfn.ARRAYTOTEXT(_xlpm.value2, 1)))))
-)</definedName>
-    <definedName name="A.EXTEND" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.reference,_xlop.direction,_xlop.scope_range,_xlop.special_cell,_xlop.include_origin,
-    _xlfn.LET(
-        _xlpm.RANGE,
-        _xlfn.LAMBDA(_xlpm.reference,_xlpm.row_min,_xlpm.col_min,_xlpm.row_max,_xlpm.col_max,
-            _xlfn.LET(
-                _xlpm.topleft, OFFSET(_xlpm.reference, -1 * MIN(ROW(_xlpm.reference)) + 1, -1 * MIN(COLUMN(_xlpm.reference)) + 1, 1, 1),
-                OFFSET(_xlpm.topleft, _xlpm.row_min - 1, _xlpm.col_min - 1, _xlpm.row_max - _xlpm.row_min + 1, _xlpm.col_max - _xlpm.col_min + 1))),
-        _xlpm.calcerror, _xlfn._xlws.FILTER({1},FALSE),
-        _xlpm.direction, IF(_xlfn.ISOMITTED(_xlpm.direction), 0, _xlpm.direction * 1),
-        _xlpm.include_origin, IF(_xlfn.ISOMITTED(_xlpm.include_origin), 0, _xlpm.include_origin * 1),
-        IF(_xlfn.ISOMITTED(_xlpm.reference), #VALUE!,
-        IF(AND(_xlpm.direction &lt;&gt; 0, _xlpm.direction &lt;&gt; 1, _xlpm.direction &lt;&gt; 2, _xlpm.direction &lt;&gt; 3), #VALUE!,
-        IF(AND(_xlpm.special_cell &lt;&gt; 0, _xlpm.special_cell &lt;&gt; 1), #VALUE!,
-        IF(AND(_xlpm.include_origin &lt;&gt; 0, _xlpm.include_origin &lt;&gt; 1), #VALUE!,
-        IF(_xlpm.include_origin = 0,
-            _xlfn.LET(
-                _xlpm.jump_to, A.JUMP(_xlpm.reference, _xlpm.direction, _xlpm.scope_range, _xlpm.special_cell),
-                IF(A.EQ(_xlpm.reference, _xlpm.jump_to), _xlpm.calcerror,
-                    IF(_xlpm.direction = 0, _xlpm.RANGE(_xlpm.reference, MAX(ROW(_xlpm.reference)) + 1, MIN(COLUMN(_xlpm.jump_to)), MAX(ROW(_xlpm.jump_to)), MAX(COLUMN(_xlpm.jump_to))),
-                    IF(_xlpm.direction = 1, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.jump_to)), MAX(COLUMN(_xlpm.reference)) + 1, MAX(ROW(_xlpm.jump_to)), MAX(COLUMN(_xlpm.jump_to))),
-                    IF(_xlpm.direction = 2, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.jump_to)), MIN(COLUMN(_xlpm.jump_to)), MIN(ROW(_xlpm.reference)) - 1, MAX(COLUMN(_xlpm.jump_to))),
-                    IF(_xlpm.direction = 3, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.jump_to)), MIN(COLUMN(_xlpm.jump_to)), MAX(ROW(_xlpm.jump_to)), MIN(COLUMN(_xlpm.reference)) - 1),
-                    #VALUE!)))))),
-        IF(_xlpm.include_origin = 1,
-            _xlpm.reference:A.JUMP(_xlpm.reference, _xlpm.direction, _xlpm.scope_range, _xlpm.special_cell),
-        #VALUE!)))))))
-)</definedName>
-    <definedName name="A.INTERSECT.CELLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlop.ignore,_xlop.scan_by_column,
-    _xlfn.LET(
-        _xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),
-        _xlpm.ignore, IF(_xlfn.ISOMITTED(_xlpm.ignore), 0, _xlpm.ignore * 1),
-        _xlpm.scan_by_column, IF(_xlfn.ISOMITTED(_xlpm.scan_by_column), 0, _xlpm.scan_by_column * 1),
-        IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,
-        IF(AND(_xlpm.ignore &lt;&gt; 0, _xlpm.ignore &lt;&gt; 1, _xlpm.ignore &lt;&gt; 2, _xlpm.ignore &lt;&gt; 3), #VALUE!,
-        IF(AND(_xlpm.scan_by_column &lt;&gt; 0, _xlpm.scan_by_column &lt;&gt; 1), #VALUE!,
-        _xlfn.LET(
-            _xlpm.array1du_1, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array1, _xlpm.ignore, _xlpm.scan_by_column)),
-            _xlpm.array1du_2, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array2, _xlpm.ignore, _xlpm.scan_by_column)),
-            _xlfn._xlws.FILTER(_xlpm.array1du_1, NOT(ISERROR(_xlfn.XMATCH(_xlpm.array1du_1, _xlpm.array1du_2)))))))))
-)</definedName>
-    <definedName name="A.INTERSECT.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,
-    _xlfn.LET(
-        _xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),
-        IF(
-            _xlfn.ISOMITTED(_xlpm.array1),
-            #VALUE!,
-            _xlfn.LET(
-                _xlpm.arrayu_1, _xlfn.UNIQUE(_xlpm.array1, TRUE),
-                _xlpm.arrayu_2, _xlfn.UNIQUE(_xlpm.array2, TRUE),
-                _xlfn._xlws.FILTER(_xlpm.arrayu_1, NOT(ISERROR(A.XMATCH.COLS(_xlpm.arrayu_1, _xlpm.arrayu_2)))))))
-)</definedName>
-    <definedName name="A.INTERSECT.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,
-    _xlfn.LET(
-        _xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),
-        IF(
-            _xlfn.ISOMITTED(_xlpm.array1),
-            #VALUE!,
-            _xlfn.LET(
-                _xlpm.arrayu_1, _xlfn.UNIQUE(_xlpm.array1, FALSE),
-                _xlpm.arrayu_2, _xlfn.UNIQUE(_xlpm.array2, FALSE),
-                _xlfn._xlws.FILTER(_xlpm.arrayu_1, NOT(ISERROR(A.XMATCH.ROWS(_xlpm.arrayu_1, _xlpm.arrayu_2)))))))
-)</definedName>
-    <definedName name="A.JUMP" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.reference,_xlop.direction,_xlop.scope_range,_xlop.special_cell,
-    _xlfn.LET(
-        _xlpm.RANGE,
-        _xlfn.LAMBDA(_xlpm.reference,_xlpm.row_min,_xlpm.col_min,_xlpm.row_max,_xlpm.col_max,
-            _xlfn.LET(
-                _xlpm.topleft, OFFSET(_xlpm.reference, -1 * MIN(ROW(_xlpm.reference)) + 1, -1 * MIN(COLUMN(_xlpm.reference)) + 1, 1, 1),
-                OFFSET(_xlpm.topleft, _xlpm.row_min - 1, _xlpm.col_min - 1, _xlpm.row_max - _xlpm.row_min + 1, _xlpm.col_max - _xlpm.col_min + 1))),
-        _xlpm.CHANGEROW,
-        _xlfn.LAMBDA(_xlpm.reference,_xlpm.row_new,
-            _xlpm.RANGE(_xlpm.reference, _xlpm.row_new, MIN(COLUMN(_xlpm.reference)), _xlpm.row_new, MAX(COLUMN(_xlpm.reference)))),
-        _xlpm.CHANGECOL,
-        _xlfn.LAMBDA(_xlpm.reference,_xlpm.col_new,
-            _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.reference)), _xlpm.col_new, MAX(ROW(_xlpm.reference)), _xlpm.col_new)),
-        _xlpm.f,
-        _xlfn.LAMBDA(_xlpm.scope,_xlpm.special_cell,
-            IF(_xlpm.special_cell = 0, NOT(ISBLANK(_xlpm.scope)),
-            IF(_xlpm.special_cell = 1, 1,
-            #VALUE!))),
-        _xlpm.direction, IF(_xlfn.ISOMITTED(_xlpm.direction), 0, _xlpm.direction * 1),
-        _xlpm.scope_range, IF(_xlfn.ISOMITTED(_xlpm.scope_range), _xlpm.RANGE(_xlpm.reference, 1, 1, 1048576, 16384), _xlpm.scope_range),
-        _xlpm.special_cell, IF(_xlfn.ISOMITTED(_xlpm.special_cell), 0, _xlpm.special_cell * 1),
-        IF(_xlfn.ISOMITTED(_xlpm.reference), #VALUE!,
-        IF(AND(_xlpm.direction &lt;&gt; 0, _xlpm.direction &lt;&gt; 1, _xlpm.direction &lt;&gt; 2, _xlpm.direction &lt;&gt; 3), #VALUE!,
-        IF(AND(_xlpm.special_cell &lt;&gt; 0, _xlpm.special_cell &lt;&gt; 1), #VALUE!,
-        IF(NOT(AND(MIN(ROW(_xlpm.reference)) &gt;= MIN(ROW(_xlpm.scope_range)), MAX(ROW(_xlpm.reference)) &lt;= MAX(ROW(_xlpm.scope_range)),
-            MIN(COLUMN(_xlpm.reference)) &gt;= MIN(COLUMN(_xlpm.scope_range)), MAX(COLUMN(_xlpm.reference)) &lt;= MAX(COLUMNS(_xlpm.scope_range)))),
-            #VALUE!,
-        IF(_xlpm.direction = 0,
-            _xlfn.LET(
-                _xlpm.scope_inter, _xlpm.RANGE(_xlpm.reference, MAX(MIN(ROW(_xlpm.reference)), MIN(ROW(_xlpm.scope_range))), MIN(COLUMN(_xlpm.reference)), MAX(ROW(_xlpm.scope_range)), MAX(COLUMN(_xlpm.reference))),
-                _xlfn.LET(
-                    _xlpm.row_new, MAX(ROW(_xlpm.scope_inter) * _xlpm.f(_xlpm.scope_inter, _xlpm.special_cell)),
-                    IF(_xlpm.row_new &gt; MAX(ROW(_xlpm.reference)), _xlpm.CHANGEROW(_xlpm.reference, _xlpm.row_new), _xlpm.reference))),
-        IF(_xlpm.direction = 1,
-            _xlfn.LET(
-                _xlpm.scope_inter, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.reference)), MAX(MIN(COLUMN(_xlpm.reference)), MIN(COLUMN(_xlpm.scope_range))), MAX(ROW(_xlpm.reference)), MAX(COLUMNS(_xlpm.scope_range))),
-                _xlfn.LET(
-                    _xlpm.col_new, MAX(COLUMN(_xlpm.scope_inter) * _xlpm.f(_xlpm.scope_inter, _xlpm.special_cell)),
-                    IF(_xlpm.col_new &gt; MAX(COLUMN(_xlpm.reference)), _xlpm.CHANGECOL(_xlpm.reference, _xlpm.col_new), _xlpm.reference))),
-        IF(_xlpm.direction = 2,
-            _xlfn.LET(
-                _xlpm.scope_inter, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.scope_range)), MIN(COLUMN(_xlpm.reference)), MIN(MAX(ROW(_xlpm.reference)), MAX(ROW(_xlpm.scope_range))), MAX(COLUMN(_xlpm.reference))),
-                _xlfn.LET(
-                    _xlpm.row_new,
-                    _xlfn.LET(_xlpm.x, ROW(_xlpm.scope_inter) * _xlpm.f(_xlpm.scope_inter, _xlpm.special_cell), IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.x, _xlpm.x &lt;&gt; 0)), 1048577)),
-                    IF(_xlpm.row_new &lt; MIN(ROW(_xlpm.reference)), _xlpm.CHANGEROW(_xlpm.reference, _xlpm.row_new), _xlpm.reference))),
-        IF(_xlpm.direction = 3,
-            _xlfn.LET(
-                _xlpm.scope_inter, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.reference)), MIN(COLUMN(_xlpm.scope_range)), MAX(ROW(_xlpm.reference)), MIN(MAX(COLUMN(_xlpm.reference)), MAX(COLUMNS(_xlpm.scope_range)))),
-                _xlfn.LET(
-                    _xlpm.col_new,
-                    _xlfn.LET(_xlpm.x, COLUMN(_xlpm.scope_inter) * _xlpm.f(_xlpm.scope_inter, _xlpm.special_cell), IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.x, _xlpm.x &lt;&gt; 0)), 16385)),
-                    IF(_xlpm.col_new &lt; MIN(COLUMN(_xlpm.reference)), _xlpm.CHANGECOL(_xlpm.reference, _xlpm.col_new), _xlpm.reference))),
-            #VALUE!)))))))))
-)</definedName>
-    <definedName name="A.LOCATE.CELLBYTEXT" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.find_text,_xlpm.within_array,_xlop.find_direction,_xlop.text_function,_xlop.start_num,
-    _xlfn.LET(
-        _xlpm.ROTATEROWS,
-        _xlfn.LAMBDA(_xlpm.array,
-            _xlfn.MAKEARRAY(ROWS(_xlpm.array), COLUMNS(_xlpm.array),
-                _xlfn.LAMBDA(_xlpm.i,_xlpm.j, INDEX(_xlpm.array, ROWS(_xlpm.array) - _xlpm.i + 1, _xlpm.j)))),
-        _xlpm.ROTATECOLS,
-        _xlfn.LAMBDA(_xlpm.array,
-            _xlfn.MAKEARRAY(ROWS(_xlpm.array), COLUMNS(_xlpm.array),
-                _xlfn.LAMBDA(_xlpm.i,_xlpm.j, INDEX(_xlpm.array, _xlpm.i, COLUMNS(_xlpm.array) - _xlpm.j + 1)))),
-        _xlpm.find_direction, IF(_xlfn.ISOMITTED(_xlpm.find_direction), 0, _xlpm.find_direction * 1),
-        _xlpm.text_function, IF(_xlfn.ISOMITTED(_xlpm.text_function), 0, _xlpm.text_function * 1),
-        _xlpm.start_num, IF(_xlfn.ISOMITTED(_xlpm.start_num), 1, _xlpm.start_num),
-        IF(OR(_xlfn.ISOMITTED(_xlpm.find_text), _xlfn.ISOMITTED(_xlpm.within_array)), #VALUE!,
-        IF(AND(_xlpm.find_direction &lt;&gt; 0, _xlpm.find_direction &lt;&gt; 1, _xlpm.find_direction &lt;&gt; 2, _xlpm.find_direction &lt;&gt; 3), #VALUE!,
-        IF(AND(_xlpm.text_function &lt;&gt; 0, _xlpm.text_function &lt;&gt; 1, _xlpm.text_function &lt;&gt; 2, _xlpm.text_function &lt;&gt; 3), #VALUE!,
-        _xlfn.LET(
-            _xlpm.matches,
-                IF(_xlpm.text_function = 0, ISNUMBER(SEARCH(_xlpm.find_text, _xlpm.within_array, _xlpm.start_num)),
-                IF(_xlpm.text_function = 1, ISNUMBER(FIND(_xlpm.find_text, _xlpm.within_array, _xlpm.start_num)),
-                IF(_xlpm.text_function = 2, ISNUMBER(SEARCHB(_xlpm.find_text, _xlpm.within_array, _xlpm.start_num)),
-                IF(_xlpm.text_function = 3, ISNUMBER(FINDB(_xlpm.find_text, _xlpm.within_array, _xlpm.start_num)),
-                #VALUE!)))),
-            IF(_xlpm.find_direction = 0,
-                _xlfn.LET(
-                    _xlpm.x, _xlfn.XMATCH(TRUE, _xlfn.TOCOL(_xlpm.matches)),
-                    _xlpm.row_rel, INT((_xlpm.x - 1) / COLUMNS(_xlpm.within_array)) + 1,
-                    _xlpm.col_rel, _xlfn.LET(_xlpm.r, MOD(_xlpm.x, COLUMNS(_xlpm.within_array)), IF(_xlpm.r = 0, COLUMNS(_xlpm.within_array), _xlpm.r)),
-                    INDEX(_xlpm.within_array, _xlpm.row_rel, _xlpm.col_rel)),
-            IF(_xlpm.find_direction = 1,
-                _xlfn.LET(
-                    _xlpm.x, _xlfn.XMATCH(TRUE, _xlfn.TOCOL(_xlpm.ROTATECOLS(_xlpm.matches))),
-                    _xlpm.row_rel, INT((_xlpm.x - 1) / COLUMNS(_xlpm.within_array)) + 1,
-                    _xlpm.col_rel, COLUMNS(_xlpm.within_array) - _xlfn.LET(_xlpm.r, MOD(_xlpm.x, COLUMNS(_xlpm.within_array)), IF(_xlpm.r = 0, COLUMNS(_xlpm.within_array), _xlpm.r)) + 1,
-                    INDEX(_xlpm.within_array, _xlpm.row_rel, _xlpm.col_rel)),
-            IF(_xlpm.find_direction = 2,
-                _xlfn.LET(
-                    _xlpm.x, _xlfn.XMATCH(TRUE, _xlfn.TOCOL(_xlpm.ROTATEROWS(_xlpm.matches))),
-                    _xlpm.row_rel, ROWS(_xlpm.within_array) - INT((_xlpm.x - 1) / COLUMNS(_xlpm.within_array)),
-                    _xlpm.col_rel, _xlfn.LET(_xlpm.r, MOD(_xlpm.x, COLUMNS(_xlpm.within_array)), IF(_xlpm.r = 0, COLUMNS(_xlpm.within_array), _xlpm.r)),
-                    INDEX(_xlpm.within_array, _xlpm.row_rel, _xlpm.col_rel)),
-            IF(_xlpm.find_direction = 3,
-                _xlfn.LET(
-                    _xlpm.x, _xlfn.XMATCH(TRUE, _xlfn.TOCOL(_xlpm.matches), 0, -1),
-                    _xlpm.row_rel, ROWS(_xlpm.within_array) - INT((_xlpm.x - 1) / COLUMNS(_xlpm.within_array)),
-                    _xlpm.col_rel, _xlfn.LET(_xlpm.r, MOD(_xlpm.x, COLUMNS(_xlpm.within_array)), IF(_xlpm.r = 0, COLUMNS(_xlpm.within_array), _xlpm.r)),
-                    INDEX(_xlpm.within_array, _xlpm.row_rel, _xlpm.col_rel)),
-            #VALUE!)))))))))
-)</definedName>
-    <definedName name="A.LOCATE.RANGEBYTEXT" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.find_text,_xlpm.within_array,_xlop.find_direction,_xlop.extend_direction,_xlop.scope_range,_xlop.special_cell,_xlop.include_origin,_xlop.text_function,_xlop.start_num,
-    _xlfn.LET(
-        _xlpm.cell, A.LOCATE.CELLBYTEXT(_xlpm.find_text, _xlpm.within_array, _xlpm.find_direction),
-        A.EXTEND(_xlpm.cell, _xlpm.extend_direction, _xlpm.scope_range, _xlpm.special_cell, _xlpm.include_origin))
-)</definedName>
-    <definedName name="A.REDUCE.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.initial_value,_xlpm.array,_xlpm.function,
-    IF(
-        OR(_xlfn.ISOMITTED(_xlpm.initial_value), _xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.function)),
-        #VALUE!,
-        _xlfn.REDUCE(_xlpm.initial_value, _xlfn.SEQUENCE(COLUMNS(_xlpm.array)),
-            _xlfn.LAMBDA(_xlpm.acc,_xlpm.i, _xlpm.function(_xlpm.acc, _xlfn.CHOOSECOLS(_xlpm.array, _xlpm.i))))
-    )
-)</definedName>
-    <definedName name="A.REDUCE.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.initial_value,_xlpm.array,_xlpm.function,
-    IF(
-        OR(_xlfn.ISOMITTED(_xlpm.initial_value), _xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.function)),
-        #VALUE!,
-        _xlfn.REDUCE(_xlpm.initial_value, _xlfn.SEQUENCE(ROWS(_xlpm.array)),
-            _xlfn.LAMBDA(_xlpm.acc,_xlpm.i, _xlpm.function(_xlpm.acc, _xlfn.CHOOSEROWS(_xlpm.array, _xlpm.i))))
-    )
-)</definedName>
-    <definedName name="A.SCAN.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.initial_value,_xlpm.array,_xlpm.function,
-    IF(
-        OR(_xlfn.ISOMITTED(_xlpm.initial_value), _xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.function)),
-        #VALUE!,
-        _xlfn.SCAN(_xlpm.initial_value, _xlfn.SEQUENCE(COLUMNS(_xlpm.array)),
-            _xlfn.LAMBDA(_xlpm.acc,_xlpm.i_col, _xlpm.function(_xlpm.acc, _xlfn.CHOOSECOLS(_xlpm.array, _xlpm.i_col)))))
-)</definedName>
-    <definedName name="A.SCAN.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.initial_value,_xlpm.array,_xlpm.function,
-    IF(
-        OR(_xlfn.ISOMITTED(_xlpm.initial_value), _xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.function)),
-        #VALUE!,
-        _xlfn.SCAN(_xlpm.initial_value, _xlfn.SEQUENCE(ROWS(_xlpm.array)),
-            _xlfn.LAMBDA(_xlpm.acc,_xlpm.i_row, _xlpm.function(_xlpm.acc, _xlfn.CHOOSEROWS(_xlpm.array, _xlpm.i_row)))))
-)</definedName>
-    <definedName name="A.SETDIFF.CELLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlop.ignore,_xlop.scan_by_column,
-    _xlfn.LET(
-        _xlpm.ignore, IF(_xlfn.ISOMITTED(_xlpm.ignore), 0, _xlpm.ignore * 1),
-        _xlpm.scan_by_column, IF(_xlfn.ISOMITTED(_xlpm.scan_by_column), 0, _xlpm.scan_by_column * 1),
-        IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,
-        IF(_xlfn.ISOMITTED(_xlpm.array2), _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array1, _xlpm.ignore, _xlpm.scan_by_column)),
-        IF(AND(_xlpm.ignore &lt;&gt; 0, _xlpm.ignore &lt;&gt; 1, _xlpm.ignore &lt;&gt; 2, _xlpm.ignore &lt;&gt; 3), #VALUE!,
-        IF(AND(_xlpm.scan_by_column &lt;&gt; 0, _xlpm.scan_by_column &lt;&gt; 1), #VALUE!,
-        _xlfn.LET(
-            _xlpm.array1du_1, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array1, _xlpm.ignore, _xlpm.scan_by_column)),
-            _xlpm.array1du_2, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array2, _xlpm.ignore, _xlpm.scan_by_column)),
-            _xlfn._xlws.FILTER(_xlpm.array1du_1, ISERROR(_xlfn.XMATCH(_xlpm.array1du_1, _xlpm.array1du_2)))))))))
-)</definedName>
-    <definedName name="A.SETDIFF.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,
-    IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,
-    IF(_xlfn.ISOMITTED(_xlpm.array2), _xlfn.UNIQUE(_xlpm.array1, TRUE),
-    _xlfn.LET(
-        _xlpm.arrayu_1, _xlfn.UNIQUE(_xlpm.array1, TRUE),
-        _xlpm.arrayu_2, _xlfn.UNIQUE(_xlpm.array2, TRUE),
-        _xlfn._xlws.FILTER(_xlpm.arrayu_1, ISERROR(A.XMATCH.COLS(_xlpm.arrayu_1, _xlpm.arrayu_2))))))
-)</definedName>
-    <definedName name="A.SETDIFF.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,
-    IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,
-    IF(_xlfn.ISOMITTED(_xlpm.array2), _xlfn.UNIQUE(_xlpm.array1, FALSE),
-    _xlfn.LET(
-        _xlpm.arrayu_1, _xlfn.UNIQUE(_xlpm.array1, FALSE),
-        _xlpm.arrayu_2, _xlfn.UNIQUE(_xlpm.array2, FALSE),
-        _xlfn._xlws.FILTER(_xlpm.arrayu_1, ISERROR(A.XMATCH.ROWS(_xlpm.arrayu_1, _xlpm.arrayu_2))))))
-)</definedName>
-    <definedName name="A.UNION.CELLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlop.ignore,_xlop.scan_by_column,
-    _xlfn.LET(
-        _xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),
-        _xlpm.ignore, IF(_xlfn.ISOMITTED(_xlpm.ignore), 0, _xlpm.ignore * 1),
-        _xlpm.scan_by_column, IF(_xlfn.ISOMITTED(_xlpm.scan_by_column), 0, _xlpm.scan_by_column * 1),
-        IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,
-        IF(AND(_xlpm.ignore &lt;&gt; 0, _xlpm.ignore &lt;&gt; 1, _xlpm.ignore &lt;&gt; 2, _xlpm.ignore &lt;&gt; 3), #VALUE!,
-        IF(AND(_xlpm.scan_by_column &lt;&gt; 0, _xlpm.scan_by_column &lt;&gt; 1), #VALUE!,
-        _xlfn.UNIQUE(_xlfn.VSTACK(
-            _xlfn.TOCOL(_xlpm.array1, _xlpm.ignore, _xlpm.scan_by_column),
-            _xlfn.TOCOL(_xlpm.array2, _xlpm.ignore, _xlpm.scan_by_column)))))))
-)</definedName>
-    <definedName name="A.UNION.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,
-    _xlfn.LET(
-        _xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),
-        IF(
-            _xlfn.ISOMITTED(_xlpm.array1),
-            #VALUE!,
-            _xlfn.UNIQUE(_xlfn.HSTACK(_xlpm.array1, _xlpm.array2), TRUE)))
-)</definedName>
-    <definedName name="A.UNION.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,
-    _xlfn.LET(
-        _xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),
-        IF(
-            _xlfn.ISOMITTED(_xlpm.array1),
-            #VALUE!,
-            _xlfn.UNIQUE(_xlfn.VSTACK(_xlpm.array1, _xlpm.array2), FALSE)))
-)</definedName>
+    <definedName name="A.COUNTEQ.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlpm.criteria_col, IF( OR(_xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.criteria_col)), #VALUE!, IF(AND(ROWS(_xlpm.array) = 1, ROWS(_xlpm.criteria_col) = 1), COUNTIF(_xlpm.array, _xlpm.criteria_col), _xlfn.BYCOL( _xlpm.criteria_col, _xlfn.LAMBDA(_xlpm.col, A.REDUCE.COLS(0, _xlpm.array, _xlfn.LAMBDA(_xlpm.acc,_xlpm.col_bis, IF(A.EQ(_xlpm.col_bis, _xlpm.col), _xlpm.acc + 1, _xlpm.acc))))))) )</definedName>
+    <definedName name="A.COUNTEQ.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlpm.criteria_row, IF( OR(_xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.criteria_row)), #VALUE!, IF(AND(COLUMNS(_xlpm.array) = 1, COLUMNS(_xlpm.criteria_row) = 1), COUNTIF(_xlpm.array, _xlpm.criteria_row), _xlfn.BYROW( _xlpm.criteria_row, _xlfn.LAMBDA(_xlpm.row, A.REDUCE.ROWS(0, _xlpm.array, _xlfn.LAMBDA(_xlpm.acc,_xlpm.row_bis, IF(A.EQ(_xlpm.row_bis, _xlpm.row), _xlpm.acc + 1, _xlpm.acc))))))) )</definedName>
+    <definedName name="A.DUPLICATED" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlop.keep,_xlop.by_col,_xlfn.LET(_xlpm.keep, IF(_xlfn.ISOMITTED(_xlpm.keep), 0, _xlpm.keep * 1),_xlpm.by_col, IF(_xlfn.ISOMITTED(_xlpm.by_col), 0, _xlpm.by_col * 1),IF(_xlfn.ISOMITTED(_xlpm.array), #VALUE!,IF(AND(_xlpm.keep &lt;&gt; 0, _xlpm.keep &lt;&gt; 1, _xlpm.keep &lt;&gt; -1), #VALUE!,IF(AND(_xlpm.by_col &lt;&gt; 0, _xlpm.by_col &lt;&gt; 1), #VALUE!,IF(_xlpm.by_col = 0, IF(_xlpm.keep = 0, A.COUNTEQ.ROWS(_xlpm.array, _xlpm.array) &gt;= 2,IF(_xlpm.keep = 1, ROW(_xlpm.array) - MIN(ROW(_xlpm.array)) + 1 &lt;&gt; A.XMATCH.ROWS(_xlpm.array,_xlpm.array),IF(_xlpm.keep = -1, ROW(_xlpm.array) - MIN(ROW(_xlpm.array)) + 1 &lt;&gt; A.XMATCH.ROWS(_xlpm.array, _xlpm.array, -1),#VALUE!))),IF(_xlpm.by_col = 1, IF(_xlpm.keep = 0, A.COUNTEQ.COLS(_xlpm.array, _xlpm.array) &gt;= 2,IF(_xlpm.keep = 1, COLUMN(_xlpm.array) - MIN(COLUMN(_xlpm.array)) + 1 &lt;&gt; A.XMATCH.COLS(_xlpm.array,_xlpm.array),IF(_xlpm.keep = -1, COLUMN(_xlpm.array) - MIN(COLUMN(_xlpm.array)) + 1 &lt;&gt; A.XMATCH.COLS(_xlpm.array, _xlpm.array, -1),#VALUE!))),#VALUE!)))))))</definedName>
+    <definedName name="A.DUPLICATED.BYTIMES" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlpm.occurrence,_xlop.by_col,_xlfn.LET(_xlpm.by_col, IF(_xlfn.ISOMITTED(_xlpm.by_col), 0, _xlpm.by_col * 1),IF(OR(_xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.occurrence)), #VALUE!,IF(AND(_xlpm.by_col &lt;&gt; 0, _xlpm.by_col &lt;&gt; 1), #VALUE!,IF(_xlpm.by_col = 0, A.COUNTEQ.ROWS(_xlpm.array, _xlpm.array) = _xlpm.occurrence,IF(_xlpm.by_col = 1, A.COUNTEQ.COLS(_xlpm.array, _xlpm.array) = _xlpm.occurrence,#VALUE!))))))</definedName>
+    <definedName name="A.DUPLICATES" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlop.keep,_xlop.by_col,_xlop.return_array,_xlfn.LET(_xlpm.return_array, IF(_xlfn.ISOMITTED(_xlpm.return_array), _xlpm.array, _xlpm.return_array),_xlfn._xlws.FILTER(_xlpm.return_array, A.DUPLICATED(_xlpm.array, _xlpm.keep, _xlpm.by_col))))</definedName>
+    <definedName name="A.DUPLICATES.BYTIMES" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array,_xlpm.occurrence,_xlop.by_col,_xlop.return_array,_xlfn.LET(_xlpm.return_array, IF(_xlfn.ISOMITTED(_xlpm.return_array), _xlpm.array, _xlpm.return_array),_xlfn._xlws.FILTER(_xlpm.return_array, A.DUPLICATED.BYTIMES(_xlpm.array, _xlpm.occurrence, _xlpm.by_col))))</definedName>
+    <definedName name="A.EQ" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.value1,_xlpm.value2,IF(AND(ISBLANK(_xlpm.value1), ISBLANK(_xlpm.value2)), TRUE,IF(AND(ISBLANK(_xlpm.value1), NOT(ISBLANK(_xlpm.value2))), FALSE,IF(AND(NOT(ISBLANK(_xlpm.value1)), ISBLANK(_xlpm.value2)), FALSE,IF(COLUMNS(_xlpm.value1) &lt;&gt; COLUMNS(_xlpm.value2), FALSE,_xlfn.ARRAYTOTEXT(_xlpm.value1, 1) = _xlfn.ARRAYTOTEXT(_xlpm.value2, 1))))))</definedName>
+    <definedName name="A.EXTEND" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.reference,_xlop.direction,_xlop.scope_range,_xlop.special_cell,_xlop.include_origin, _xlfn.LET( _xlpm.RANGE, _xlfn.LAMBDA(_xlpm.reference,_xlpm.row_min,_xlpm.col_min,_xlpm.row_max,_xlpm.col_max, _xlfn.LET( _xlpm.topleft, OFFSET(_xlpm.reference, -1 * MIN(ROW(_xlpm.reference)) + 1, -1 * MIN(COLUMN(_xlpm.reference)) + 1, 1, 1), OFFSET(_xlpm.topleft, _xlpm.row_min - 1, _xlpm.col_min - 1, _xlpm.row_max - _xlpm.row_min + 1, _xlpm.col_max - _xlpm.col_min + 1))), _xlpm.calcerror, _xlfn._xlws.FILTER({1},FALSE), _xlpm.direction, IF(_xlfn.ISOMITTED(_xlpm.direction), 0, _xlpm.direction * 1), _xlpm.include_origin, IF(_xlfn.ISOMITTED(_xlpm.include_origin), 0, _xlpm.include_origin * 1), IF(_xlfn.ISOMITTED(_xlpm.reference), #VALUE!, IF(AND(_xlpm.direction &lt;&gt; 0, _xlpm.direction &lt;&gt; 1, _xlpm.direction &lt;&gt; 2, _xlpm.direction &lt;&gt; 3), #VALUE!, IF(AND(_xlpm.special_cell &lt;&gt; 0, _xlpm.special_cell &lt;&gt; 1), #VALUE!, IF(AND(_xlpm.include_origin &lt;&gt; 0, _xlpm.include_origin &lt;&gt; 1), #VALUE!, IF(_xlpm.include_origin = 0, _xlfn.LET( _xlpm.jump_to, A.JUMP(_xlpm.reference, _xlpm.direction, _xlpm.scope_range, _xlpm.special_cell), IF(A.EQ(_xlpm.reference, _xlpm.jump_to), _xlpm.calcerror, IF(_xlpm.direction = 0, _xlpm.RANGE(_xlpm.reference, MAX(ROW(_xlpm.reference)) + 1, MIN(COLUMN(_xlpm.jump_to)), MAX(ROW(_xlpm.jump_to)), MAX(COLUMN(_xlpm.jump_to))), IF(_xlpm.direction = 1, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.jump_to)), MAX(COLUMN(_xlpm.reference)) + 1, MAX(ROW(_xlpm.jump_to)), MAX(COLUMN(_xlpm.jump_to))), IF(_xlpm.direction = 2, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.jump_to)), MIN(COLUMN(_xlpm.jump_to)), MIN(ROW(_xlpm.reference)) - 1, MAX(COLUMN(_xlpm.jump_to))), IF(_xlpm.direction = 3, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.jump_to)), MIN(COLUMN(_xlpm.jump_to)), MAX(ROW(_xlpm.jump_to)), MIN(COLUMN(_xlpm.reference)) - 1), #VALUE!)))))), IF(_xlpm.include_origin = 1, _xlpm.reference:A.JUMP(_xlpm.reference, _xlpm.direction, _xlpm.scope_range, _xlpm.special_cell), #VALUE!))))))) )</definedName>
+    <definedName name="A.INTERSECT.CELLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlop.ignore,_xlop.scan_by_column,_xlfn.LET(_xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),_xlpm.ignore, IF(_xlfn.ISOMITTED(_xlpm.ignore), 0, _xlpm.ignore * 1),_xlpm.scan_by_column, IF(_xlfn.ISOMITTED(_xlpm.scan_by_column), 0, _xlpm.scan_by_column * 1),IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,IF(AND(_xlpm.ignore &lt;&gt; 0, _xlpm.ignore &lt;&gt; 1, _xlpm.ignore &lt;&gt; 2, _xlpm.ignore &lt;&gt; 3), #VALUE!,IF(AND(_xlpm.scan_by_column &lt;&gt; 0, _xlpm.scan_by_column &lt;&gt; 1), #VALUE!,_xlfn.LET(_xlpm.array1du_1, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array1, _xlpm.ignore, _xlpm.scan_by_column)),_xlpm.array1du_2, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array2, _xlpm.ignore, _xlpm.scan_by_column)),_xlfn._xlws.FILTER(_xlpm.array1du_1, NOT(ISERROR(_xlfn.XMATCH(_xlpm.array1du_1, _xlpm.array1du_2))))))))))</definedName>
+    <definedName name="A.INTERSECT.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlfn.LET(_xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),IF(_xlfn.ISOMITTED(_xlpm.array1),#VALUE!,_xlfn.LET(_xlpm.arrayu_1, _xlfn.UNIQUE(_xlpm.array1, TRUE),_xlpm.arrayu_2, _xlfn.UNIQUE(_xlpm.array2, TRUE),_xlfn._xlws.FILTER(_xlpm.arrayu_1, NOT(ISERROR(A.XMATCH.COLS(_xlpm.arrayu_1, _xlpm.arrayu_2))))))))</definedName>
+    <definedName name="A.INTERSECT.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlfn.LET(_xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),IF(_xlfn.ISOMITTED(_xlpm.array1),#VALUE!,_xlfn.LET(_xlpm.arrayu_1, _xlfn.UNIQUE(_xlpm.array1, FALSE),_xlpm.arrayu_2, _xlfn.UNIQUE(_xlpm.array2, FALSE),_xlfn._xlws.FILTER(_xlpm.arrayu_1, NOT(ISERROR(A.XMATCH.ROWS(_xlpm.arrayu_1, _xlpm.arrayu_2))))))))</definedName>
+    <definedName name="A.JUMP" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.reference,_xlop.direction,_xlop.scope_range,_xlop.special_cell,_xlfn.LET(_xlpm.RANGE,_xlfn.LAMBDA(_xlpm.reference,_xlpm.row_min,_xlpm.col_min,_xlpm.row_max,_xlpm.col_max,_xlfn.LET(_xlpm.topleft, OFFSET(_xlpm.reference, -1 * MIN(ROW(_xlpm.reference)) + 1, -1 * MIN(COLUMN(_xlpm.reference)) + 1, 1, 1),OFFSET(_xlpm.topleft, _xlpm.row_min - 1, _xlpm.col_min - 1, _xlpm.row_max - _xlpm.row_min + 1, _xlpm.col_max - _xlpm.col_min + 1))), _xlpm.CHANGEROW, _xlfn.LAMBDA(_xlpm.reference,_xlpm.row_new, _xlpm.RANGE(_xlpm.reference, _xlpm.row_new, MIN(COLUMN(_xlpm.reference)), _xlpm.row_new, MAX(COLUMN(_xlpm.reference)))), _xlpm.CHANGECOL, _xlfn.LAMBDA(_xlpm.reference,_xlpm.col_new, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.reference)), _xlpm.col_new, MAX(ROW(_xlpm.reference)), _xlpm.col_new)), _xlpm.f, _xlfn.LAMBDA(_xlpm.scope,_xlpm.special_cell, IF(_xlpm.special_cell = 0, NOT(ISBLANK(_xlpm.scope)), IF(_xlpm.special_cell = 1, 1, #VALUE!))), _xlpm.direction, IF(_xlfn.ISOMITTED(_xlpm.direction), 0, _xlpm.direction * 1), _xlpm.scope_range, IF(_xlfn.ISOMITTED(_xlpm.scope_range), _xlpm.RANGE(_xlpm.reference, 1, 1, 1048576, 16384), _xlpm.scope_range), _xlpm.special_cell, IF(_xlfn.ISOMITTED(_xlpm.special_cell), 0, _xlpm.special_cell * 1), IF(_xlfn.ISOMITTED(_xlpm.reference), #VALUE!, IF(AND(_xlpm.direction &lt;&gt; 0, _xlpm.direction &lt;&gt; 1, _xlpm.direction &lt;&gt; 2, _xlpm.direction &lt;&gt; 3), #VALUE!, IF(AND(_xlpm.special_cell &lt;&gt; 0, _xlpm.special_cell &lt;&gt; 1), #VALUE!, IF(NOT(AND(MIN(ROW(_xlpm.reference)) &gt;= MIN(ROW(_xlpm.scope_range)), MAX(ROW(_xlpm.reference)) &lt;= MAX(ROW(_xlpm.scope_range)), MIN(COLUMN(_xlpm.reference)) &gt;= MIN(COLUMN(_xlpm.scope_range)), MAX(COLUMN(_xlpm.reference)) &lt;= MAX(COLUMNS(_xlpm.scope_range)))), #VALUE!, IF(_xlpm.direction = 0, _xlfn.LET( _xlpm.scope_inter, _xlpm.RANGE(_xlpm.reference, MAX(MIN(ROW(_xlpm.reference)), MIN(ROW(_xlpm.scope_range))), MIN(COLUMN(_xlpm.reference)), MAX(ROW(_xlpm.scope_range)), MAX(COLUMN(_xlpm.reference))), _xlfn.LET( _xlpm.row_new, MAX(ROW(_xlpm.scope_inter) * _xlpm.f(_xlpm.scope_inter, _xlpm.special_cell)), IF(_xlpm.row_new &gt; MAX(ROW(_xlpm.reference)), _xlpm.CHANGEROW(_xlpm.reference, _xlpm.row_new), _xlpm.reference))), IF(_xlpm.direction = 1, _xlfn.LET( _xlpm.scope_inter, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.reference)), MAX(MIN(COLUMN(_xlpm.reference)), MIN(COLUMN(_xlpm.scope_range))), MAX(ROW(_xlpm.reference)), MAX(COLUMNS(_xlpm.scope_range))), _xlfn.LET( _xlpm.col_new, MAX(COLUMN(_xlpm.scope_inter) * _xlpm.f(_xlpm.scope_inter, _xlpm.special_cell)), IF(_xlpm.col_new &gt; MAX(COLUMN(_xlpm.reference)), _xlpm.CHANGECOL(_xlpm.reference, _xlpm.col_new), _xlpm.reference))), IF(_xlpm.direction = 2, _xlfn.LET( _xlpm.scope_inter, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.scope_range)), MIN(COLUMN(_xlpm.reference)), MIN(MAX(ROW(_xlpm.reference)), MAX(ROW(_xlpm.scope_range))), MAX(COLUMN(_xlpm.reference))), _xlfn.LET( _xlpm.row_new, _xlfn.LET(_xlpm.x, ROW(_xlpm.scope_inter) * _xlpm.f(_xlpm.scope_inter, _xlpm.special_cell), IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.x, _xlpm.x &lt;&gt; 0)), 1048577)), IF(_xlpm.row_new &lt; MIN(ROW(_xlpm.reference)), _xlpm.CHANGEROW(_xlpm.reference, _xlpm.row_new), _xlpm.reference))), IF(_xlpm.direction = 3, _xlfn.LET( _xlpm.scope_inter, _xlpm.RANGE(_xlpm.reference, MIN(ROW(_xlpm.reference)), MIN(COLUMN(_xlpm.scope_range)), MAX(ROW(_xlpm.reference)), MIN(MAX(COLUMN(_xlpm.reference)), MAX(COLUMNS(_xlpm.scope_range)))), _xlfn.LET( _xlpm.col_new, _xlfn.LET(_xlpm.x, COLUMN(_xlpm.scope_inter) * _xlpm.f(_xlpm.scope_inter, _xlpm.special_cell), IFERROR(MIN(_xlfn._xlws.FILTER(_xlpm.x, _xlpm.x &lt;&gt; 0)), 16385)), IF(_xlpm.col_new &lt; MIN(COLUMN(_xlpm.reference)), _xlpm.CHANGECOL(_xlpm.reference, _xlpm.col_new), _xlpm.reference))), #VALUE!))))))))) )</definedName>
+    <definedName name="A.LOCATE.CELLBYTEXT" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.find_text,_xlpm.within_array,_xlop.find_direction,_xlop.text_function,_xlop.start_num,_xlfn.LET(_xlpm.ROTATEROWS,_xlfn.LAMBDA(_xlpm.array,_xlfn.MAKEARRAY(ROWS(_xlpm.array), COLUMNS(_xlpm.array), _xlfn.LAMBDA(_xlpm.i,_xlpm.j, INDEX(_xlpm.array, ROWS(_xlpm.array) - _xlpm.i + 1, _xlpm.j)))),_xlpm.ROTATECOLS,_xlfn.LAMBDA(_xlpm.array,_xlfn.MAKEARRAY(ROWS(_xlpm.array), COLUMNS(_xlpm.array), _xlfn.LAMBDA(_xlpm.i,_xlpm.j, INDEX(_xlpm.array, _xlpm.i, COLUMNS(_xlpm.array) - _xlpm.j + 1)))),_xlpm.find_direction, IF(_xlfn.ISOMITTED(_xlpm.find_direction), 0, _xlpm.find_direction * 1),_xlpm.text_function, IF(_xlfn.ISOMITTED(_xlpm.text_function), 0, _xlpm.text_function * 1),_xlpm.start_num, IF(_xlfn.ISOMITTED(_xlpm.start_num), 1, _xlpm.start_num),IF(OR(_xlfn.ISOMITTED(_xlpm.find_text), _xlfn.ISOMITTED(_xlpm.within_array)), #VALUE!,IF(AND(_xlpm.find_direction &lt;&gt; 0, _xlpm.find_direction &lt;&gt; 1, _xlpm.find_direction &lt;&gt; 2, _xlpm.find_direction &lt;&gt; 3), #VALUE!,IF(AND(_xlpm.text_function &lt;&gt; 0, _xlpm.text_function &lt;&gt; 1, _xlpm.text_function &lt;&gt; 2, _xlpm.text_function &lt;&gt; 3), #VALUE!,_xlfn.LET(_xlpm.matches, IF(_xlpm.text_function = 0, ISNUMBER(SEARCH(_xlpm.find_text, _xlpm.within_array, _xlpm.start_num)),IF(_xlpm.text_function = 1, ISNUMBER(FIND(_xlpm.find_text, _xlpm.within_array, _xlpm.start_num)),IF(_xlpm.text_function = 2, ISNUMBER(SEARCHB(_xlpm.find_text, _xlpm.within_array, _xlpm.start_num)),IF(_xlpm.text_function = 3, ISNUMBER(FINDB(_xlpm.find_text, _xlpm.within_array, _xlpm.start_num)),#VALUE!)))),IF(_xlpm.find_direction = 0,_xlfn.LET(_xlpm.x, _xlfn.XMATCH(TRUE, _xlfn.TOCOL(_xlpm.matches)),_xlpm.row_rel, INT((_xlpm.x - 1) / COLUMNS(_xlpm.within_array)) + 1,_xlpm.col_rel, _xlfn.LET(_xlpm.r, MOD(_xlpm.x, COLUMNS(_xlpm.within_array)), IF(_xlpm.r = 0, COLUMNS(_xlpm.within_array), _xlpm.r)),INDEX(_xlpm.within_array, _xlpm.row_rel, _xlpm.col_rel)),IF(_xlpm.find_direction = 1,_xlfn.LET(_xlpm.x, _xlfn.XMATCH(TRUE, _xlfn.TOCOL(_xlpm.ROTATECOLS(_xlpm.matches))),_xlpm.row_rel, INT((_xlpm.x - 1) / COLUMNS(_xlpm.within_array)) + 1,_xlpm.col_rel, COLUMNS(_xlpm.within_array) - _xlfn.LET(_xlpm.r, MOD(_xlpm.x, COLUMNS(_xlpm.within_array)), IF(_xlpm.r = 0, COLUMNS(_xlpm.within_array), _xlpm.r)) + 1,INDEX(_xlpm.within_array, _xlpm.row_rel, _xlpm.col_rel)),IF(_xlpm.find_direction = 2,_xlfn.LET(_xlpm.x, _xlfn.XMATCH(TRUE, _xlfn.TOCOL(_xlpm.ROTATEROWS(_xlpm.matches))),_xlpm.row_rel, ROWS(_xlpm.within_array) - INT((_xlpm.x - 1) / COLUMNS(_xlpm.within_array)),_xlpm.col_rel, _xlfn.LET(_xlpm.r, MOD(_xlpm.x, COLUMNS(_xlpm.within_array)), IF(_xlpm.r = 0, COLUMNS(_xlpm.within_array), _xlpm.r)),INDEX(_xlpm.within_array, _xlpm.row_rel, _xlpm.col_rel)),IF(_xlpm.find_direction = 3,_xlfn.LET(_xlpm.x, _xlfn.XMATCH(TRUE, _xlfn.TOCOL(_xlpm.matches), 0, -1),_xlpm.row_rel, ROWS(_xlpm.within_array) - INT((_xlpm.x - 1) / COLUMNS(_xlpm.within_array)),_xlpm.col_rel, _xlfn.LET(_xlpm.r, MOD(_xlpm.x, COLUMNS(_xlpm.within_array)), IF(_xlpm.r = 0, COLUMNS(_xlpm.within_array), _xlpm.r)),INDEX(_xlpm.within_array, _xlpm.row_rel, _xlpm.col_rel)),#VALUE!))))))))))</definedName>
+    <definedName name="A.LOCATE.RANGEBYTEXT" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.find_text,_xlpm.within_array,_xlop.find_direction,_xlop.extend_direction,_xlop.scope_range,_xlop.special_cell,_xlop.include_origin,_xlop.text_function,_xlop.start_num, _xlfn.LET( _xlpm.cell, A.LOCATE.CELLBYTEXT(_xlpm.find_text, _xlpm.within_array, _xlpm.find_direction), A.EXTEND(_xlpm.cell, _xlpm.extend_direction, _xlpm.scope_range, _xlpm.special_cell, _xlpm.include_origin)) )</definedName>
+    <definedName name="A.REDUCE.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.initial_value,_xlpm.array,_xlpm.function,IF(OR(_xlfn.ISOMITTED(_xlpm.initial_value), _xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.function)),#VALUE!,_xlfn.REDUCE(_xlpm.initial_value, _xlfn.SEQUENCE(COLUMNS(_xlpm.array)),_xlfn.LAMBDA(_xlpm.acc,_xlpm.i, _xlpm.function(_xlpm.acc, _xlfn.CHOOSECOLS(_xlpm.array, _xlpm.i))))))</definedName>
+    <definedName name="A.REDUCE.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.initial_value,_xlpm.array,_xlpm.function,IF(OR(_xlfn.ISOMITTED(_xlpm.initial_value), _xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.function)),#VALUE!,_xlfn.REDUCE(_xlpm.initial_value, _xlfn.SEQUENCE(ROWS(_xlpm.array)),_xlfn.LAMBDA(_xlpm.acc,_xlpm.i, _xlpm.function(_xlpm.acc, _xlfn.CHOOSEROWS(_xlpm.array, _xlpm.i))))))</definedName>
+    <definedName name="A.SCAN.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.initial_value,_xlpm.array,_xlpm.function,IF(OR(_xlfn.ISOMITTED(_xlpm.initial_value), _xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.function)),#VALUE!,_xlfn.SCAN(_xlpm.initial_value, _xlfn.SEQUENCE(COLUMNS(_xlpm.array)),_xlfn.LAMBDA(_xlpm.acc,_xlpm.i_col, _xlpm.function(_xlpm.acc, _xlfn.CHOOSECOLS(_xlpm.array, _xlpm.i_col))))))</definedName>
+    <definedName name="A.SCAN.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.initial_value,_xlpm.array,_xlpm.function,IF(OR(_xlfn.ISOMITTED(_xlpm.initial_value), _xlfn.ISOMITTED(_xlpm.array), _xlfn.ISOMITTED(_xlpm.function)),#VALUE!,_xlfn.SCAN(_xlpm.initial_value, _xlfn.SEQUENCE(ROWS(_xlpm.array)),_xlfn.LAMBDA(_xlpm.acc,_xlpm.i_row, _xlpm.function(_xlpm.acc, _xlfn.CHOOSEROWS(_xlpm.array, _xlpm.i_row))))))</definedName>
+    <definedName name="A.SETDIFF.CELLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlop.ignore,_xlop.scan_by_column,_xlfn.LET(_xlpm.ignore, IF(_xlfn.ISOMITTED(_xlpm.ignore), 0, _xlpm.ignore * 1),_xlpm.scan_by_column, IF(_xlfn.ISOMITTED(_xlpm.scan_by_column), 0, _xlpm.scan_by_column * 1),IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,IF(_xlfn.ISOMITTED(_xlpm.array2), _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array1, _xlpm.ignore, _xlpm.scan_by_column)),IF(AND(_xlpm.ignore &lt;&gt; 0, _xlpm.ignore &lt;&gt; 1, _xlpm.ignore &lt;&gt; 2, _xlpm.ignore &lt;&gt; 3), #VALUE!,IF(AND(_xlpm.scan_by_column &lt;&gt; 0, _xlpm.scan_by_column &lt;&gt; 1), #VALUE!,_xlfn.LET(_xlpm.array1du_1, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array1, _xlpm.ignore, _xlpm.scan_by_column)),_xlpm.array1du_2, _xlfn.UNIQUE(_xlfn.TOCOL(_xlpm.array2, _xlpm.ignore, _xlpm.scan_by_column)),_xlfn._xlws.FILTER(_xlpm.array1du_1, ISERROR(_xlfn.XMATCH(_xlpm.array1du_1, _xlpm.array1du_2))))))))))</definedName>
+    <definedName name="A.SETDIFF.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,IF(_xlfn.ISOMITTED(_xlpm.array2), _xlfn.UNIQUE(_xlpm.array1, TRUE),_xlfn.LET(_xlpm.arrayu_1, _xlfn.UNIQUE(_xlpm.array1, TRUE),_xlpm.arrayu_2, _xlfn.UNIQUE(_xlpm.array2, TRUE),_xlfn._xlws.FILTER(_xlpm.arrayu_1, ISERROR(A.XMATCH.COLS(_xlpm.arrayu_1, _xlpm.arrayu_2)))))))</definedName>
+    <definedName name="A.SETDIFF.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,IF(_xlfn.ISOMITTED(_xlpm.array2), _xlfn.UNIQUE(_xlpm.array1, FALSE),_xlfn.LET(_xlpm.arrayu_1, _xlfn.UNIQUE(_xlpm.array1, FALSE),_xlpm.arrayu_2, _xlfn.UNIQUE(_xlpm.array2, FALSE),_xlfn._xlws.FILTER(_xlpm.arrayu_1, ISERROR(A.XMATCH.ROWS(_xlpm.arrayu_1, _xlpm.arrayu_2)))))))</definedName>
+    <definedName name="A.UNION.CELLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlop.ignore,_xlop.scan_by_column,_xlfn.LET(_xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),_xlpm.ignore, IF(_xlfn.ISOMITTED(_xlpm.ignore), 0, _xlpm.ignore * 1),_xlpm.scan_by_column, IF(_xlfn.ISOMITTED(_xlpm.scan_by_column), 0, _xlpm.scan_by_column * 1),IF(_xlfn.ISOMITTED(_xlpm.array1), #VALUE!,IF(AND(_xlpm.ignore &lt;&gt; 0, _xlpm.ignore &lt;&gt; 1, _xlpm.ignore &lt;&gt; 2, _xlpm.ignore &lt;&gt; 3), #VALUE!,IF(AND(_xlpm.scan_by_column &lt;&gt; 0, _xlpm.scan_by_column &lt;&gt; 1), #VALUE!,_xlfn.UNIQUE(_xlfn.VSTACK(_xlfn.TOCOL(_xlpm.array1, _xlpm.ignore, _xlpm.scan_by_column), _xlfn.TOCOL(_xlpm.array2, _xlpm.ignore, _xlpm.scan_by_column))))))))</definedName>
+    <definedName name="A.UNION.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlfn.LET(_xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),IF(_xlfn.ISOMITTED(_xlpm.array1),#VALUE!,_xlfn.UNIQUE(_xlfn.HSTACK(_xlpm.array1, _xlpm.array2), TRUE))))</definedName>
+    <definedName name="A.UNION.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.array1,_xlop.array2,_xlfn.LET(_xlpm.array2, IF(_xlfn.ISOMITTED(_xlpm.array2), _xlpm.array1, _xlpm.array2),IF(_xlfn.ISOMITTED(_xlpm.array1),#VALUE!,_xlfn.UNIQUE(_xlfn.VSTACK(_xlpm.array1, _xlpm.array2), FALSE))))</definedName>
     <definedName name="A.VERSION" xml:space="preserve"> _xlfn.LAMBDA("AutoXL 0.1.0")</definedName>
-    <definedName name="A.XLOOKUP.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.lookup_col,_xlpm.lookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.search_mode,
-    _xlfn.LET(
-        _xlpm.if_not_found, IF(_xlfn.ISOMITTED(_xlpm.if_not_found), #N/A, _xlpm.if_not_found),
-        _xlpm.search_mode, IF(_xlfn.ISOMITTED(_xlpm.search_mode), 1, _xlpm.search_mode * 1),
-        IF(
-            OR(
-                _xlfn.ISOMITTED(_xlpm.lookup_col),
-                _xlfn.ISOMITTED(_xlpm.lookup_array),
-                _xlfn.ISOMITTED(_xlpm.return_array),
-                AND(_xlpm.search_mode &lt;&gt; 1, _xlpm.search_mode &lt;&gt; -1)),
-            #VALUE!,
-            _xlfn.LET(
-                _xlpm.x,
-                A.XMATCH.COLS(_xlpm.lookup_col, _xlpm.lookup_array, _xlpm.search_mode),
-                _xlfn.BYCOL(
-                    _xlfn.SEQUENCE(COLUMNS(_xlpm.lookup_col)),
-                    _xlfn.LAMBDA(_xlpm.col,
-                        IF(ISERROR(_xlfn.CHOOSECOLS(_xlpm.x, _xlpm.col)), _xlpm.if_not_found, CHOOSECOLSS(_xlpm.return_array, _xlfn.CHOOSECOLS(_xlpm.x, _xlpm.col))))))))
-)</definedName>
-    <definedName name="A.XLOOKUP.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.lookup_row,_xlpm.lookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.search_mode,
-    _xlfn.LET(
-        _xlpm.if_not_found, IF(_xlfn.ISOMITTED(_xlpm.if_not_found), #N/A, _xlpm.if_not_found),
-        _xlpm.search_mode, IF(_xlfn.ISOMITTED(_xlpm.search_mode), 1, _xlpm.search_mode * 1),
-        IF(
-            OR(
-                _xlfn.ISOMITTED(_xlpm.lookup_row),
-                _xlfn.ISOMITTED(_xlpm.lookup_array),
-                _xlfn.ISOMITTED(_xlpm.return_array),
-                AND(_xlpm.search_mode &lt;&gt; 1, _xlpm.search_mode &lt;&gt; -1)),
-            #VALUE!,
-            _xlfn.LET(
-                _xlpm.x,
-                A.XMATCH.ROWS(_xlpm.lookup_row, _xlpm.lookup_array, _xlpm.search_mode),
-                _xlfn.BYROW(
-                    _xlfn.SEQUENCE(ROWS(_xlpm.lookup_row)),
-                    _xlfn.LAMBDA(_xlpm.row,
-                        IF(ISERROR(_xlfn.CHOOSEROWS(_xlpm.x, _xlpm.row)), _xlpm.if_not_found, _xlfn.CHOOSEROWS(_xlpm.return_array, _xlfn.CHOOSEROWS(_xlpm.x, _xlpm.row))))))))
-)</definedName>
-    <definedName name="A.XMATCH.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.lookup_col,_xlpm.lookup_array,_xlop.search_mode,
-    _xlfn.LET(
-        _xlpm.search_mode, IF(_xlfn.ISOMITTED(_xlpm.search_mode), 1, _xlpm.search_mode * 1),
-        IF(
-            OR(
-                _xlfn.ISOMITTED(_xlpm.lookup_col),
-                _xlfn.ISOMITTED(_xlpm.lookup_array),
-                AND(_xlpm.search_mode &lt;&gt; 1, _xlpm.search_mode &lt;&gt; -1)),
-            #VALUE!,
-            _xlfn.LET(
-                _xlpm.XMATCH_COL,
-                _xlfn.LAMBDA(_xlpm.lookup_1_col,_xlpm.lookup_array,_xlop.search_mode,
-                    _xlfn.XMATCH(TRUE, _xlfn.BYCOL(_xlpm.lookup_array, _xlfn.LAMBDA(_xlpm.col, A.EQ(_xlpm.col, _xlpm.lookup_1_col))), 0, _xlpm.search_mode)),
-                _xlfn.BYCOL(
-                    _xlpm.lookup_col,
-                    _xlfn.LAMBDA(_xlpm.col, _xlpm.XMATCH_COL(_xlpm.col, _xlpm.lookup_array, _xlpm.search_mode))))))
-)</definedName>
-    <definedName name="A.XMATCH.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.lookup_row,_xlpm.lookup_array,_xlop.search_mode,
-    _xlfn.LET(
-        _xlpm.search_mode, IF(_xlfn.ISOMITTED(_xlpm.search_mode), 1, _xlpm.search_mode * 1),
-        IF(
-            OR(
-                _xlfn.ISOMITTED(_xlpm.lookup_row),
-                _xlfn.ISOMITTED(_xlpm.lookup_array),
-                AND(_xlpm.search_mode &lt;&gt; 1, _xlpm.search_mode &lt;&gt; -1)),
-            #VALUE!,
-            _xlfn.LET(
-                _xlpm.XMATCH_ROW,
-                _xlfn.LAMBDA(_xlpm.lookup_1_row,_xlpm.lookup_array,_xlop.search_mode,
-                    _xlfn.XMATCH(TRUE, _xlfn.BYROW(_xlpm.lookup_array, _xlfn.LAMBDA(_xlpm.row, A.EQ(_xlpm.row, _xlpm.lookup_1_row))), 0, _xlpm.search_mode)),
-                _xlfn.BYROW(
-                    _xlpm.lookup_row,
-                    _xlfn.LAMBDA(_xlpm.row, _xlpm.XMATCH_ROW(_xlpm.row, _xlpm.lookup_array, _xlpm.search_mode))))))
-)</definedName>
+    <definedName name="A.XLOOKUP.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.lookup_col,_xlpm.lookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.search_mode, _xlfn.LET( _xlpm.if_not_found, IF(_xlfn.ISOMITTED(_xlpm.if_not_found), #N/A, _xlpm.if_not_found), _xlpm.search_mode, IF(_xlfn.ISOMITTED(_xlpm.search_mode), 1, _xlpm.search_mode * 1), IF( OR( _xlfn.ISOMITTED(_xlpm.lookup_col), _xlfn.ISOMITTED(_xlpm.lookup_array), _xlfn.ISOMITTED(_xlpm.return_array), AND(_xlpm.search_mode &lt;&gt; 1, _xlpm.search_mode &lt;&gt; -1)), #VALUE!, IF(AND(ROWS(lookup_row) = 1, ROWS(_xlpm.lookup_array) = 1), _xlfn.XLOOKUP(_xlpm.lookup_col, _xlpm.lookup_array, _xlpm.return_array, _xlpm.if_not_found, 0, _xlpm.search_mode), _xlfn.LET( _xlpm.x, A.XMATCH.COLS(_xlpm.lookup_col, _xlpm.lookup_array, _xlpm.search_mode), _xlfn.BYCOL( _xlfn.SEQUENCE(COLUMNS(_xlpm.lookup_col)), _xlfn.LAMBDA(_xlpm.col, IF(ISERROR(_xlfn.CHOOSECOLS(_xlpm.x, _xlpm.col)), _xlpm.if_not_found, CHOOSECOLSS(_xlpm.return_array, _xlfn.CHOOSECOLS(_xlpm.x, _xlpm.col))))))))) )</definedName>
+    <definedName name="A.XLOOKUP.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.lookup_row,_xlpm.lookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.search_mode, _xlfn.LET( _xlpm.if_not_found, IF(_xlfn.ISOMITTED(_xlpm.if_not_found), #N/A, _xlpm.if_not_found), _xlpm.search_mode, IF(_xlfn.ISOMITTED(_xlpm.search_mode), 1, _xlpm.search_mode * 1), IF( OR( _xlfn.ISOMITTED(_xlpm.lookup_row), _xlfn.ISOMITTED(_xlpm.lookup_array), _xlfn.ISOMITTED(_xlpm.return_array), AND(_xlpm.search_mode &lt;&gt; 1, _xlpm.search_mode &lt;&gt; -1)), #VALUE!, IF(AND(COLUMNS(_xlpm.lookup_row) = 1, COLUMNS(_xlpm.lookup_array) = 1), _xlfn.XLOOKUP(_xlpm.lookup_row, _xlpm.lookup_array, _xlpm.return_array, _xlpm.if_not_found, 0, _xlpm.search_mode), _xlfn.LET( _xlpm.x, A.XMATCH.ROWS(_xlpm.lookup_row, _xlpm.lookup_array, _xlpm.search_mode), _xlfn.BYROW( _xlfn.SEQUENCE(ROWS(_xlpm.lookup_row)), _xlfn.LAMBDA(_xlpm.row, IF(ISERROR(_xlfn.CHOOSEROWS(_xlpm.x, _xlpm.row)), _xlpm.if_not_found, _xlfn.CHOOSEROWS(_xlpm.return_array, _xlfn.CHOOSEROWS(_xlpm.x, _xlpm.row))))))))) )</definedName>
+    <definedName name="A.XMATCH.COLS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.lookup_col,_xlpm.lookup_array,_xlop.search_mode, _xlfn.LET( _xlpm.search_mode, IF(_xlfn.ISOMITTED(_xlpm.search_mode), 1, _xlpm.search_mode * 1), IF( OR( _xlfn.ISOMITTED(_xlpm.lookup_col), _xlfn.ISOMITTED(_xlpm.lookup_array), AND(_xlpm.search_mode &lt;&gt; 1, _xlpm.search_mode &lt;&gt; -1)), #VALUE!, IF(AND(ROWS(lookup_row) = 1, ROWS(_xlpm.lookup_array) = 1), _xlfn.XMATCH(_xlpm.lookup_col, _xlpm.lookup_array, 0, _xlpm.search_mode), _xlfn.LET( _xlpm.XMATCH_COL, _xlfn.LAMBDA(_xlpm.lookup_1_col,_xlpm.lookup_array,_xlop.search_mode, _xlfn.XMATCH(TRUE, _xlfn.BYCOL(_xlpm.lookup_array, _xlfn.LAMBDA(_xlpm.col, A.EQ(_xlpm.col, _xlpm.lookup_1_col))), 0, _xlpm.search_mode)), _xlfn.BYCOL( _xlpm.lookup_col, _xlfn.LAMBDA(_xlpm.col, _xlpm.XMATCH_COL(_xlpm.col, _xlpm.lookup_array, _xlpm.search_mode))))))) )</definedName>
+    <definedName name="A.XMATCH.ROWS" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.lookup_row,_xlpm.lookup_array,_xlop.search_mode, _xlfn.LET( _xlpm.search_mode, IF(_xlfn.ISOMITTED(_xlpm.search_mode), 1, _xlpm.search_mode * 1), IF( OR( _xlfn.ISOMITTED(_xlpm.lookup_row), _xlfn.ISOMITTED(_xlpm.lookup_array), AND(_xlpm.search_mode &lt;&gt; 1, _xlpm.search_mode &lt;&gt; -1)), #VALUE!, IF(AND(COLUMNS(_xlpm.lookup_row) = 1, COLUMNS(_xlpm.lookup_array) = 1), _xlfn.XMATCH(_xlpm.lookup_row, _xlpm.lookup_array, 0, _xlpm.search_mode), _xlfn.LET( _xlpm.XMATCH_ROW, _xlfn.LAMBDA(_xlpm.lookup_1_row,_xlpm.lookup_array,_xlop.search_mode, _xlfn.XMATCH(TRUE, _xlfn.BYROW(_xlpm.lookup_array, _xlfn.LAMBDA(_xlpm.row, A.EQ(_xlpm.row, _xlpm.lookup_1_row))), 0, _xlpm.search_mode)), _xlfn.BYROW( _xlpm.lookup_row, _xlfn.LAMBDA(_xlpm.row, _xlpm.XMATCH_ROW(_xlpm.row, _xlpm.lookup_array, _xlpm.search_mode))))))) )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -431,6 +64,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1122,7 +756,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="489" row="2">
+  <wetp:taskpane dockstate="right" visibility="1" width="419" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1147,9 +781,9 @@
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -1241,11 +875,11 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="2" width="8.8984375" style="3"/>
-    <col min="3" max="3" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.8984375" style="3"/>
+    <col min="1" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23">
@@ -1584,9 +1218,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1751,15 +1385,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="3" width="8.8984375" style="3"/>
-    <col min="4" max="4" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.8984375" style="3"/>
-    <col min="9" max="9" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="8.8984375" style="3"/>
-    <col min="15" max="15" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.8984375" style="3"/>
+    <col min="1" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1959,9 +1593,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2205,9 +1839,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
